--- a/backend/uploads/inventory_forecast_1_uk_jan+2.xlsx
+++ b/backend/uploads/inventory_forecast_1_uk_jan+2.xlsx
@@ -573,16 +573,16 @@
         <v>121</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>26.21</v>
       </c>
       <c r="I2">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>121</v>
+        <v>891</v>
       </c>
       <c r="K2">
         <v>32</v>
@@ -617,16 +617,16 @@
         <v>75</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>19.79</v>
       </c>
       <c r="I3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>75</v>
+        <v>950</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>2523</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4601</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.68</v>
       </c>
       <c r="I4">
-        <v>2523</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2523</v>
+        <v>4601</v>
       </c>
       <c r="K4">
         <v>651</v>
@@ -705,16 +705,16 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>39.75</v>
       </c>
       <c r="I5">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>318</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -749,13 +749,13 @@
         <v>430</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="I6">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="J6">
         <v>430</v>
@@ -793,16 +793,16 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>34.67</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -837,16 +837,16 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>20.29</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -878,31 +878,31 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>56.44</v>
       </c>
       <c r="I9">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>39</v>
+        <v>508</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9">
         <v>11</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -925,16 +925,16 @@
         <v>277</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>14.13</v>
       </c>
       <c r="I10">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>277</v>
+        <v>1060</v>
       </c>
       <c r="K10">
         <v>71</v>
@@ -969,16 +969,16 @@
         <v>99</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.17</v>
       </c>
       <c r="I11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="K11">
         <v>26</v>
@@ -1013,16 +1013,16 @@
         <v>292</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.94</v>
       </c>
       <c r="I12">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>292</v>
+        <v>867</v>
       </c>
       <c r="K12">
         <v>77</v>
@@ -1057,16 +1057,16 @@
         <v>791</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="I13">
-        <v>791</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K13">
         <v>204</v>
@@ -1101,16 +1101,16 @@
         <v>226</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="I14">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="K14">
         <v>59</v>
@@ -1145,16 +1145,16 @@
         <v>15</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1186,10 +1186,10 @@
         <v>690</v>
       </c>
       <c r="F16">
-        <v>4984</v>
+        <v>4989</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>10878</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
@@ -1201,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="L16">
         <v>1197</v>
       </c>
       <c r="M16">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="N16">
-        <v>1160</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
